--- a/data/input/absenteeism_data_2.xlsx
+++ b/data/input/absenteeism_data_2.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>95056</v>
+        <v>35939</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Natália da Mota</t>
+          <t>Ana Laura Costa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45091</v>
+        <v>45086</v>
       </c>
       <c r="G2" t="n">
-        <v>5693.36</v>
+        <v>11121.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>44133</v>
+        <v>35354</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Heloísa Fernandes</t>
+          <t>Joana Jesus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,113 +519,113 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45097</v>
+        <v>45106</v>
       </c>
       <c r="G3" t="n">
-        <v>11898.27</v>
+        <v>9546.360000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>69915</v>
+        <v>55811</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alexandre Porto</t>
+          <t>Dr. Paulo Carvalho</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45102</v>
+        <v>45091</v>
       </c>
       <c r="G4" t="n">
-        <v>10299.16</v>
+        <v>4404.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>63500</v>
+        <v>6532</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fernanda Castro</t>
+          <t>Maria Alice Porto</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45099</v>
+        <v>45102</v>
       </c>
       <c r="G5" t="n">
-        <v>7797.09</v>
+        <v>11927.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14060</v>
+        <v>69072</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Julia Farias</t>
+          <t>Ana Laura Fogaça</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45086</v>
+        <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>10214</v>
+        <v>3599.93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>91141</v>
+        <v>55968</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Thomas Gomes</t>
+          <t>Dra. Eloah Rodrigues</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,89 +635,89 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45097</v>
+        <v>45101</v>
       </c>
       <c r="G7" t="n">
-        <v>4659.26</v>
+        <v>4104.74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>81734</v>
+        <v>31585</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dr. Levi Silva</t>
+          <t>Sr. Bernardo Moraes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="G8" t="n">
-        <v>5493.7</v>
+        <v>4824.14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>85989</v>
+        <v>79490</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nicole Barros</t>
+          <t>Otávio Dias</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45091</v>
+        <v>45082</v>
       </c>
       <c r="G9" t="n">
-        <v>7754.71</v>
+        <v>10105.79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>27349</v>
+        <v>39849</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Leandro Santos</t>
+          <t>Sra. Natália Pires</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45088</v>
+        <v>45092</v>
       </c>
       <c r="G10" t="n">
-        <v>2977.45</v>
+        <v>9105.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>81148</v>
+        <v>58072</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Brenda Correia</t>
+          <t>Alexia Correia</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45088</v>
+        <v>45089</v>
       </c>
       <c r="G11" t="n">
-        <v>6692.39</v>
+        <v>10764.06</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_2.xlsx
+++ b/data/input/absenteeism_data_2.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35939</v>
+        <v>54412</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ana Laura Costa</t>
+          <t>Alana Duarte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,196 +494,196 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45086</v>
+        <v>45087</v>
       </c>
       <c r="G2" t="n">
-        <v>11121.5</v>
+        <v>7984.51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>35354</v>
+        <v>92464</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joana Jesus</t>
+          <t>Camila Moreira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45106</v>
+        <v>45080</v>
       </c>
       <c r="G3" t="n">
-        <v>9546.360000000001</v>
+        <v>3206.79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>55811</v>
+        <v>28106</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Paulo Carvalho</t>
+          <t>Davi Lucas Carvalho</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45091</v>
+        <v>45097</v>
       </c>
       <c r="G4" t="n">
-        <v>4404.9</v>
+        <v>4345.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6532</v>
+        <v>38701</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maria Alice Porto</t>
+          <t>Catarina Jesus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45102</v>
+        <v>45079</v>
       </c>
       <c r="G5" t="n">
-        <v>11927.43</v>
+        <v>11845.44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>69072</v>
+        <v>81682</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Laura Fogaça</t>
+          <t>Gabrielly Souza</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45085</v>
+        <v>45102</v>
       </c>
       <c r="G6" t="n">
-        <v>3599.93</v>
+        <v>7355.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>55968</v>
+        <v>16630</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dra. Eloah Rodrigues</t>
+          <t>Daniela Santos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45101</v>
+        <v>45094</v>
       </c>
       <c r="G7" t="n">
-        <v>4104.74</v>
+        <v>8911.780000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>31585</v>
+        <v>87459</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sr. Bernardo Moraes</t>
+          <t>Valentina Ribeiro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45097</v>
+        <v>45104</v>
       </c>
       <c r="G8" t="n">
-        <v>4824.14</v>
+        <v>11025.51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>79490</v>
+        <v>45912</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Otávio Dias</t>
+          <t>Dr. Bruno da Mota</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,60 +693,60 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45082</v>
+        <v>45092</v>
       </c>
       <c r="G9" t="n">
-        <v>10105.79</v>
+        <v>8250.620000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>39849</v>
+        <v>21670</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sra. Natália Pires</t>
+          <t>Mirella da Costa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45092</v>
+        <v>45083</v>
       </c>
       <c r="G10" t="n">
-        <v>9105.5</v>
+        <v>11302.07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>58072</v>
+        <v>76316</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Alexia Correia</t>
+          <t>Noah da Costa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45095</v>
       </c>
       <c r="G11" t="n">
-        <v>10764.06</v>
+        <v>5598.35</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_2.xlsx
+++ b/data/input/absenteeism_data_2.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54412</v>
+        <v>41022</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alana Duarte</t>
+          <t>Ana Julia Lopes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45087</v>
+        <v>45079</v>
       </c>
       <c r="G2" t="n">
-        <v>7984.51</v>
+        <v>6882.51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>92464</v>
+        <v>55182</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Camila Moreira</t>
+          <t>Dr. Enzo Gabriel Costa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45080</v>
+        <v>45105</v>
       </c>
       <c r="G3" t="n">
-        <v>3206.79</v>
+        <v>4437.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28106</v>
+        <v>38394</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Davi Lucas Carvalho</t>
+          <t>Sr. Davi Pereira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,143 +552,143 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45097</v>
+        <v>45090</v>
       </c>
       <c r="G4" t="n">
-        <v>4345.63</v>
+        <v>5574.15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>38701</v>
+        <v>31351</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Catarina Jesus</t>
+          <t>Lavínia Vieira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45079</v>
+        <v>45081</v>
       </c>
       <c r="G5" t="n">
-        <v>11845.44</v>
+        <v>5373.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>81682</v>
+        <v>12953</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gabrielly Souza</t>
+          <t>Dra. Natália Rezende</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45102</v>
+        <v>45098</v>
       </c>
       <c r="G6" t="n">
-        <v>7355.6</v>
+        <v>11919.11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16630</v>
+        <v>77509</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Daniela Santos</t>
+          <t>Diogo Ribeiro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45094</v>
+        <v>45097</v>
       </c>
       <c r="G7" t="n">
-        <v>8911.780000000001</v>
+        <v>12190.26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>87459</v>
+        <v>49755</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Valentina Ribeiro</t>
+          <t>Stephany Peixoto</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45104</v>
+        <v>45093</v>
       </c>
       <c r="G8" t="n">
-        <v>11025.51</v>
+        <v>3953.61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>45912</v>
+        <v>4588</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dr. Bruno da Mota</t>
+          <t>Benjamin Cardoso</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45092</v>
+        <v>45103</v>
       </c>
       <c r="G9" t="n">
-        <v>8250.620000000001</v>
+        <v>8296.34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>21670</v>
+        <v>68433</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mirella da Costa</t>
+          <t>Paulo Santos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45083</v>
+        <v>45092</v>
       </c>
       <c r="G10" t="n">
-        <v>11302.07</v>
+        <v>8011.34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>76316</v>
+        <v>3466</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Noah da Costa</t>
+          <t>Luiz Otávio Farias</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45095</v>
+        <v>45100</v>
       </c>
       <c r="G11" t="n">
-        <v>5598.35</v>
+        <v>2698.98</v>
       </c>
     </row>
   </sheetData>
